--- a/example.xlsx
+++ b/example.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="183">
   <si>
     <t>Sold Ințial</t>
   </si>
@@ -310,10 +310,256 @@
     <t>-503</t>
   </si>
   <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>2524</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Carrefour bf00095</t>
+  </si>
+  <si>
+    <t>-163</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Lidl bf 00408</t>
+  </si>
+  <si>
+    <t>-256</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Focaccia bf 0016</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>2023-11-12</t>
+  </si>
+  <si>
+    <t>raport z</t>
+  </si>
+  <si>
+    <t>3390</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>dublaj Tavi</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>avans Ovi</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>salar paul</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>salar andra</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>salar deni</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>focaccia bf 0006</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>kaufland bf 00421</t>
+  </si>
+  <si>
+    <t>-155</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>cumparaturi bucatarie bf0003</t>
+  </si>
+  <si>
+    <t>-125</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>selgros adrian</t>
+  </si>
+  <si>
+    <t>-624</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>paine ch 0631</t>
+  </si>
+  <si>
+    <t>-286</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>Greseala Alin</t>
+  </si>
+  <si>
+    <t>-42</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Fructe ch32823</t>
+  </si>
+  <si>
+    <t>-100</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Cartela 9444</t>
+  </si>
+  <si>
+    <t>-32</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>Transport pahare ch1395</t>
+  </si>
+  <si>
+    <t>-132</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tips Curier </t>
+  </si>
+  <si>
+    <t>-14</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Simba invest apa tonică ch 1690</t>
+  </si>
+  <si>
+    <t>-106</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Fan courier ch7536</t>
+  </si>
+  <si>
+    <t>-312</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tips card </t>
+  </si>
+  <si>
+    <t>-238</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Raport z</t>
+  </si>
+  <si>
+    <t>1360</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>Avans Ovidiu</t>
+  </si>
+  <si>
+    <t>-1000</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>2023-11-14</t>
+  </si>
+  <si>
+    <t>Lapte ch 3230</t>
+  </si>
+  <si>
+    <t>-850</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Dmh prosciutto ch 6999</t>
+  </si>
+  <si>
+    <t>-1327</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Bartending ch 12204</t>
+  </si>
+  <si>
+    <t>-600</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Spaghetti ch 8306</t>
+  </si>
+  <si>
+    <t>-293</t>
+  </si>
+  <si>
     <t>Sold Final</t>
   </si>
   <si>
-    <t>2330.22</t>
+    <t>1659.22</t>
   </si>
 </sst>
 </file>
@@ -700,7 +946,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E63"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
@@ -1265,20 +1511,513 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" t="s">
+        <v>163</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>165</v>
+      </c>
+      <c r="B58" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" t="s">
+        <v>166</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" t="s">
+        <v>170</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" t="s">
+        <v>169</v>
+      </c>
+      <c r="C62" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A63:D63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="314">
   <si>
     <t>Sold Ințial</t>
   </si>
   <si>
-    <t>0</t>
+    <t>2957.15</t>
   </si>
   <si>
     <t>Nr</t>
@@ -34,532 +34,926 @@
     <t>Lei</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2023-11-06</t>
-  </si>
-  <si>
-    <t>Încărcare Sold</t>
+    <t>105</t>
+  </si>
+  <si>
+    <t>2023-11-18</t>
+  </si>
+  <si>
+    <t>raport z</t>
   </si>
   <si>
     <t>Intrare</t>
   </si>
   <si>
-    <t>7760.44</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2023-11-07</t>
-  </si>
-  <si>
-    <t>Plata DHM EXIM cu ch 6976</t>
+    <t>1365</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>salar Denisa</t>
   </si>
   <si>
     <t>Cheltuiala</t>
   </si>
   <si>
-    <t>-1082.07</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Kaufland bf 359</t>
-  </si>
-  <si>
-    <t>-334.49</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Lapte ch 222266</t>
-  </si>
-  <si>
-    <t>-850.2</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Raport Z</t>
-  </si>
-  <si>
-    <t>2122.5</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Focaccia </t>
+    <t>-300</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>salar Andra</t>
+  </si>
+  <si>
+    <t>-150</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">greșeală </t>
+  </si>
+  <si>
+    <t>-19</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>bani înapoiată greseala</t>
+  </si>
+  <si>
+    <t>-14</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>2023-11-19</t>
+  </si>
+  <si>
+    <t>diferența salar Ana</t>
+  </si>
+  <si>
+    <t>-15</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>diferența salar Alin</t>
+  </si>
+  <si>
+    <t>-104</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salar Paul </t>
+  </si>
+  <si>
+    <t>-200</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaufland bf </t>
+  </si>
+  <si>
+    <t>-232</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>2845</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>2023-11-20</t>
+  </si>
+  <si>
+    <t>citro ch 32870</t>
+  </si>
+  <si>
+    <t>-82</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>dmh ch 7025</t>
+  </si>
+  <si>
+    <t>-673</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>pâine ch 0634</t>
+  </si>
+  <si>
+    <t>-390</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>922</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>avans Alex</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>greșeală numerar-plus card</t>
+  </si>
+  <si>
+    <t>-16</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>2023-11-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">focaccia bf </t>
   </si>
   <si>
     <t>-120</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Fan courier</t>
-  </si>
-  <si>
-    <t>-139.96</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>2023-11-08</t>
-  </si>
-  <si>
-    <t>transfer in banca</t>
-  </si>
-  <si>
-    <t>-4000</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>2869</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Citro fructe ch 54848</t>
-  </si>
-  <si>
-    <t>-109</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Salar Denisa</t>
-  </si>
-  <si>
-    <t>-150</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Avans Alex</t>
-  </si>
-  <si>
-    <t>-200</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Greseala încasare paste creveți- plus pe card</t>
-  </si>
-  <si>
-    <t>-39</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>2023-11-09</t>
-  </si>
-  <si>
-    <t>Plata sucuri ch 10045</t>
-  </si>
-  <si>
-    <t>-647</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>Plata Teodora</t>
+    <t>124</t>
+  </si>
+  <si>
+    <t>simba ch 8607</t>
+  </si>
+  <si>
+    <t>-107</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>lapte ch 0167</t>
+  </si>
+  <si>
+    <t>-850</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>stockday ch 5286</t>
+  </si>
+  <si>
+    <t>-653</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>fan courier ch 7520</t>
+  </si>
+  <si>
+    <t>-864</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>încasare raport Z</t>
+  </si>
+  <si>
+    <t>1301</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>2023-11-22</t>
+  </si>
+  <si>
+    <t>1459</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>avans Ovi</t>
+  </si>
+  <si>
+    <t>-500</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>greșeală numerar card</t>
+  </si>
+  <si>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>Betty Ice ch 820</t>
+  </si>
+  <si>
+    <t>-392.4</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>taxy moldoveni</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>unistar horeca</t>
+  </si>
+  <si>
+    <t>-481.03</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>2023-11-23</t>
+  </si>
+  <si>
+    <t>Avans boboc</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>Avans alex</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>Raport z</t>
+  </si>
+  <si>
+    <t>1730</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>Focaccia bf 0004</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>2023-11-24</t>
+  </si>
+  <si>
+    <t>Spaghetti Ch 8979</t>
+  </si>
+  <si>
+    <t>-245</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>lapte ch 0579</t>
   </si>
   <si>
     <t>-340</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Focaccia bf 07</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plata oțet </t>
-  </si>
-  <si>
-    <t>-13</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Kaufland bf 61739</t>
-  </si>
-  <si>
-    <t>-202</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greșeală </t>
-  </si>
-  <si>
-    <t>-36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>1793</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Fan courier ch 502</t>
-  </si>
-  <si>
-    <t>-107</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>-300</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>2023-11-10</t>
-  </si>
-  <si>
-    <t>Lapte ch3 3230</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selgros </t>
-  </si>
-  <si>
-    <t>-550</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Adrian</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avans Stefan </t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>-500</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Metro 785</t>
-  </si>
-  <si>
-    <t>-2535</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Carrefour bf 048983</t>
-  </si>
-  <si>
-    <t>-55</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>1558</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>2023-11-11</t>
-  </si>
-  <si>
-    <t>Stockday ch</t>
-  </si>
-  <si>
-    <t>-503</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>2524</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Carrefour bf00095</t>
+    <t>141</t>
+  </si>
+  <si>
+    <t>Leroy Merlin bf 0040</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>transport materiale</t>
+  </si>
+  <si>
+    <t>-80</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>tableta</t>
+  </si>
+  <si>
+    <t>-1700</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>fan courier ch7515</t>
+  </si>
+  <si>
+    <t>-544</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>bani motorina Ovi</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>Cargus ch 0747</t>
+  </si>
+  <si>
+    <t>-31</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>1721</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>2023-11-25</t>
+  </si>
+  <si>
+    <t>Incasare raport Z</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>salar denisa</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>avans stefan</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>focaccia bf 0007</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>menta 2733394</t>
+  </si>
+  <si>
+    <t>-144</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>Fructe ch 32915</t>
+  </si>
+  <si>
+    <t>-181</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>2023-11-26</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>salar Paul</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>2023-11-27</t>
+  </si>
+  <si>
+    <t>-600</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avans ovi </t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>dmh Ch 7049</t>
+  </si>
+  <si>
+    <t>-655</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>electrician</t>
+  </si>
+  <si>
+    <t>-400</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>908</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>focaccia bf 0006</t>
+  </si>
+  <si>
+    <t>-90</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>cargus ch 8678</t>
+  </si>
+  <si>
+    <t>-49</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>dpd ch 2002</t>
+  </si>
+  <si>
+    <t>-58</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>sergiu</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>2023-11-28</t>
+  </si>
+  <si>
+    <t>Lapte ch 0797</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>Citro ch 32937</t>
+  </si>
+  <si>
+    <t>-133</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>Stockday ch 1330125422</t>
+  </si>
+  <si>
+    <t>-402</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>Dublaj Tavi</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>Gheata ch 25497</t>
+  </si>
+  <si>
+    <t>-45</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>Sergiu</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>chifle bf 0050</t>
+  </si>
+  <si>
+    <t>-38</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>hamburger sagrod bf 0075</t>
+  </si>
+  <si>
+    <t>-57</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>nordic burger vegetal Ch 9136</t>
+  </si>
+  <si>
+    <t>-35</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>1315</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>2023-11-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macheta </t>
+  </si>
+  <si>
+    <t>-210</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>1320</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>fan courier Ch 7502</t>
+  </si>
+  <si>
+    <t>-75</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>cargus ch SR260615905</t>
+  </si>
+  <si>
+    <t>-201</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>kaufland bf 00445</t>
+  </si>
+  <si>
+    <t>-51</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>focaccia bf 0005</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>taxi Georgiana</t>
+  </si>
+  <si>
+    <t>-30</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>Paine Ch 0639</t>
+  </si>
+  <si>
+    <t>-318</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>2023-11-30</t>
+  </si>
+  <si>
+    <t>avans Ovidiu</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>gheata ch 25527</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>avans Boboc</t>
+  </si>
+  <si>
+    <t>-450</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>2023-12-01</t>
+  </si>
+  <si>
+    <t>1448</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>Avans Stefan</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>avans Adina</t>
+  </si>
+  <si>
+    <t>-100</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>Avans Tavi</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>focaccia bf 0002</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>lapte ch 1192</t>
+  </si>
+  <si>
+    <t>-425</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>dmh Ch 7067</t>
+  </si>
+  <si>
+    <t>-676</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>2023-12-02</t>
+  </si>
+  <si>
+    <t>kaufland bf 00083</t>
   </si>
   <si>
     <t>-163</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>Lidl bf 00408</t>
-  </si>
-  <si>
-    <t>-256</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Focaccia bf 0016</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>2023-11-12</t>
-  </si>
-  <si>
-    <t>raport z</t>
-  </si>
-  <si>
-    <t>3390</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>dublaj Tavi</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>avans Ovi</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>salar paul</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>salar andra</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>salar deni</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>focaccia bf 0006</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>kaufland bf 00421</t>
-  </si>
-  <si>
-    <t>-155</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>cumparaturi bucatarie bf0003</t>
-  </si>
-  <si>
-    <t>-125</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>selgros adrian</t>
-  </si>
-  <si>
-    <t>-624</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>2023-11-13</t>
-  </si>
-  <si>
-    <t>paine ch 0631</t>
-  </si>
-  <si>
-    <t>-286</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>Greseala Alin</t>
-  </si>
-  <si>
-    <t>-42</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>Fructe ch32823</t>
-  </si>
-  <si>
-    <t>-100</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>Cartela 9444</t>
-  </si>
-  <si>
-    <t>-32</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>Transport pahare ch1395</t>
-  </si>
-  <si>
-    <t>-132</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tips Curier </t>
-  </si>
-  <si>
-    <t>-14</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>Simba invest apa tonică ch 1690</t>
-  </si>
-  <si>
-    <t>-106</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>Fan courier ch7536</t>
-  </si>
-  <si>
-    <t>-312</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tips card </t>
-  </si>
-  <si>
-    <t>-238</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>Raport z</t>
-  </si>
-  <si>
-    <t>1360</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>Avans Ovidiu</t>
-  </si>
-  <si>
-    <t>-1000</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>2023-11-14</t>
-  </si>
-  <si>
-    <t>Lapte ch 3230</t>
-  </si>
-  <si>
-    <t>-850</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Dmh prosciutto ch 6999</t>
-  </si>
-  <si>
-    <t>-1327</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Bartending ch 12204</t>
-  </si>
-  <si>
-    <t>-600</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>Spaghetti ch 8306</t>
-  </si>
-  <si>
-    <t>-293</t>
+    <t>203</t>
+  </si>
+  <si>
+    <t>Citro Ch 32959</t>
+  </si>
+  <si>
+    <t>-84</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>2068</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>Avans Paul</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>avans ovidiu</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>avans boboc</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>2023-12-03</t>
+  </si>
+  <si>
+    <t>1894</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>Salar paul</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>motorina Ovidiu</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>avans Stefan</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>2023-12-04</t>
+  </si>
+  <si>
+    <t>Paine Ch 0640</t>
+  </si>
+  <si>
+    <t>-294</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>Citro Ch 32966</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>dmh Ch 7072</t>
+  </si>
+  <si>
+    <t>-380</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>maraton ch 573550</t>
+  </si>
+  <si>
+    <t>-3000</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>kaufland bf 00080</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avans ovidiu
+</t>
+  </si>
+  <si>
+    <t>-800</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>hamburger sagrod bf 0021</t>
+  </si>
+  <si>
+    <t>-124</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>chifle bf 0044</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>asko-avantica Ch 1445</t>
+  </si>
+  <si>
+    <t>-79</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>1103</t>
   </si>
   <si>
     <t>Sold Final</t>
   </si>
   <si>
-    <t>1659.22</t>
+    <t>4069.72</t>
   </si>
 </sst>
 </file>
@@ -946,7 +1340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E119"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
@@ -1005,81 +1399,81 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
@@ -1090,13 +1484,13 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>31</v>
@@ -1107,30 +1501,30 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
         <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>37</v>
@@ -1141,30 +1535,30 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
         <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
         <v>43</v>
@@ -1175,13 +1569,13 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
         <v>46</v>
@@ -1192,13 +1586,13 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
         <v>49</v>
@@ -1209,115 +1603,115 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
         <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
         <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
         <v>59</v>
       </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
         <v>60</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
         <v>62</v>
       </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
         <v>63</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
         <v>65</v>
       </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
         <v>66</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
         <v>68</v>
       </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
         <v>69</v>
@@ -1328,13 +1722,13 @@
         <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
         <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
         <v>72</v>
@@ -1345,679 +1739,1631 @@
         <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
         <v>15</v>
-      </c>
-      <c r="E31" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" t="s">
         <v>95</v>
       </c>
-      <c r="B33" t="s">
-        <v>96</v>
-      </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s">
         <v>15</v>
-      </c>
-      <c r="E45" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
         <v>15</v>
-      </c>
-      <c r="E46" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C48" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E48" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E51" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>149</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C53" t="s">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" t="s">
         <v>153</v>
       </c>
-      <c r="B54" t="s">
-        <v>135</v>
-      </c>
       <c r="C54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s">
         <v>154</v>
-      </c>
-      <c r="D54" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" t="s">
         <v>156</v>
       </c>
-      <c r="B55" t="s">
-        <v>135</v>
-      </c>
-      <c r="C55" t="s">
-        <v>157</v>
-      </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E55" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
         <v>159</v>
-      </c>
-      <c r="B56" t="s">
-        <v>135</v>
-      </c>
-      <c r="C56" t="s">
-        <v>160</v>
-      </c>
-      <c r="D56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s">
         <v>162</v>
-      </c>
-      <c r="B57" t="s">
-        <v>135</v>
-      </c>
-      <c r="C57" t="s">
-        <v>163</v>
-      </c>
-      <c r="D57" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="C58" t="s">
-        <v>166</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C59" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E59" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" t="s">
         <v>169</v>
       </c>
-      <c r="C60" t="s">
-        <v>173</v>
-      </c>
       <c r="D60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B61" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C61" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E61" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>174</v>
+      </c>
+      <c r="B62" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" t="s">
+        <v>175</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>176</v>
+      </c>
+      <c r="B63" t="s">
+        <v>177</v>
+      </c>
+      <c r="C63" t="s">
         <v>178</v>
       </c>
-      <c r="B62" t="s">
-        <v>169</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>179</v>
       </c>
-      <c r="D62" t="s">
+      <c r="B64" t="s">
+        <v>177</v>
+      </c>
+      <c r="C64" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>182</v>
+      </c>
+      <c r="B65" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>185</v>
+      </c>
+      <c r="B66" t="s">
+        <v>177</v>
+      </c>
+      <c r="C66" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>187</v>
+      </c>
+      <c r="B67" t="s">
+        <v>177</v>
+      </c>
+      <c r="C67" t="s">
+        <v>188</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>190</v>
+      </c>
+      <c r="B68" t="s">
+        <v>177</v>
+      </c>
+      <c r="C68" t="s">
+        <v>191</v>
+      </c>
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>192</v>
+      </c>
+      <c r="B69" t="s">
+        <v>177</v>
+      </c>
+      <c r="C69" t="s">
+        <v>193</v>
+      </c>
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>195</v>
+      </c>
+      <c r="B70" t="s">
+        <v>177</v>
+      </c>
+      <c r="C70" t="s">
+        <v>196</v>
+      </c>
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>198</v>
+      </c>
+      <c r="B71" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" t="s">
+        <v>199</v>
+      </c>
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" t="s">
+        <v>177</v>
+      </c>
+      <c r="C72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>203</v>
+      </c>
+      <c r="B73" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" t="s">
+        <v>205</v>
+      </c>
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>207</v>
+      </c>
+      <c r="B74" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>209</v>
+      </c>
+      <c r="B75" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" t="s">
+        <v>210</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>212</v>
+      </c>
+      <c r="B76" t="s">
+        <v>204</v>
+      </c>
+      <c r="C76" t="s">
+        <v>213</v>
+      </c>
+      <c r="D76" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>215</v>
+      </c>
+      <c r="B77" t="s">
+        <v>204</v>
+      </c>
+      <c r="C77" t="s">
+        <v>216</v>
+      </c>
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>218</v>
+      </c>
+      <c r="B78" t="s">
+        <v>204</v>
+      </c>
+      <c r="C78" t="s">
+        <v>219</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>220</v>
+      </c>
+      <c r="B79" t="s">
+        <v>204</v>
+      </c>
+      <c r="C79" t="s">
+        <v>221</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>223</v>
+      </c>
+      <c r="B80" t="s">
+        <v>204</v>
+      </c>
+      <c r="C80" t="s">
+        <v>224</v>
+      </c>
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>226</v>
+      </c>
+      <c r="B81" t="s">
+        <v>227</v>
+      </c>
+      <c r="C81" t="s">
+        <v>228</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>229</v>
+      </c>
+      <c r="B82" t="s">
+        <v>227</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>231</v>
+      </c>
+      <c r="B83" t="s">
+        <v>227</v>
+      </c>
+      <c r="C83" t="s">
+        <v>219</v>
+      </c>
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>232</v>
+      </c>
+      <c r="B84" t="s">
+        <v>227</v>
+      </c>
+      <c r="C84" t="s">
+        <v>233</v>
+      </c>
+      <c r="D84" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>234</v>
+      </c>
+      <c r="B85" t="s">
+        <v>227</v>
+      </c>
+      <c r="C85" t="s">
+        <v>235</v>
+      </c>
+      <c r="D85" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>237</v>
+      </c>
+      <c r="B86" t="s">
+        <v>238</v>
+      </c>
+      <c r="C86" t="s">
+        <v>100</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>240</v>
+      </c>
+      <c r="B87" t="s">
+        <v>238</v>
+      </c>
+      <c r="C87" t="s">
+        <v>241</v>
+      </c>
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>242</v>
+      </c>
+      <c r="B88" t="s">
+        <v>238</v>
+      </c>
+      <c r="C88" t="s">
+        <v>53</v>
+      </c>
+      <c r="D88" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>243</v>
+      </c>
+      <c r="B89" t="s">
+        <v>238</v>
+      </c>
+      <c r="C89" t="s">
+        <v>244</v>
+      </c>
+      <c r="D89" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>246</v>
+      </c>
+      <c r="B90" t="s">
+        <v>238</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>247</v>
+      </c>
+      <c r="B91" t="s">
+        <v>238</v>
+      </c>
+      <c r="C91" t="s">
+        <v>248</v>
+      </c>
+      <c r="D91" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" t="s">
         <v>15</v>
       </c>
-      <c r="E62" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>249</v>
+      </c>
+      <c r="B92" t="s">
+        <v>238</v>
+      </c>
+      <c r="C92" t="s">
+        <v>250</v>
+      </c>
+      <c r="D92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>251</v>
+      </c>
+      <c r="B93" t="s">
+        <v>238</v>
+      </c>
+      <c r="C93" t="s">
+        <v>252</v>
+      </c>
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>254</v>
+      </c>
+      <c r="B94" t="s">
+        <v>238</v>
+      </c>
+      <c r="C94" t="s">
+        <v>255</v>
+      </c>
+      <c r="D94" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>257</v>
+      </c>
+      <c r="B95" t="s">
+        <v>258</v>
+      </c>
+      <c r="C95" t="s">
+        <v>259</v>
+      </c>
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>261</v>
+      </c>
+      <c r="B96" t="s">
+        <v>258</v>
+      </c>
+      <c r="C96" t="s">
+        <v>262</v>
+      </c>
+      <c r="D96" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>264</v>
+      </c>
+      <c r="B97" t="s">
+        <v>258</v>
+      </c>
+      <c r="C97" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>266</v>
+      </c>
+      <c r="B98" t="s">
+        <v>258</v>
+      </c>
+      <c r="C98" t="s">
+        <v>175</v>
+      </c>
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>267</v>
+      </c>
+      <c r="B99" t="s">
+        <v>258</v>
+      </c>
+      <c r="C99" t="s">
+        <v>268</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>269</v>
+      </c>
+      <c r="B100" t="s">
+        <v>258</v>
+      </c>
+      <c r="C100" t="s">
+        <v>270</v>
+      </c>
+      <c r="D100" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>271</v>
+      </c>
+      <c r="B101" t="s">
+        <v>258</v>
+      </c>
+      <c r="C101" t="s">
+        <v>53</v>
+      </c>
+      <c r="D101" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>272</v>
+      </c>
+      <c r="B102" t="s">
+        <v>258</v>
+      </c>
+      <c r="C102" t="s">
+        <v>273</v>
+      </c>
+      <c r="D102" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>274</v>
+      </c>
+      <c r="B103" t="s">
+        <v>275</v>
+      </c>
+      <c r="C103" t="s">
+        <v>100</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>277</v>
+      </c>
+      <c r="B104" t="s">
+        <v>275</v>
+      </c>
+      <c r="C104" t="s">
+        <v>278</v>
+      </c>
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>279</v>
+      </c>
+      <c r="B105" t="s">
+        <v>275</v>
+      </c>
+      <c r="C105" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>280</v>
+      </c>
+      <c r="B106" t="s">
+        <v>275</v>
+      </c>
+      <c r="C106" t="s">
+        <v>175</v>
+      </c>
+      <c r="D106" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>281</v>
+      </c>
+      <c r="B107" t="s">
+        <v>275</v>
+      </c>
+      <c r="C107" t="s">
+        <v>282</v>
+      </c>
+      <c r="D107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>283</v>
+      </c>
+      <c r="B108" t="s">
+        <v>275</v>
+      </c>
+      <c r="C108" t="s">
+        <v>284</v>
+      </c>
+      <c r="D108" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>285</v>
+      </c>
+      <c r="B109" t="s">
+        <v>286</v>
+      </c>
+      <c r="C109" t="s">
+        <v>287</v>
+      </c>
+      <c r="D109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>289</v>
+      </c>
+      <c r="B110" t="s">
+        <v>286</v>
+      </c>
+      <c r="C110" t="s">
+        <v>290</v>
+      </c>
+      <c r="D110" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>291</v>
+      </c>
+      <c r="B111" t="s">
+        <v>286</v>
+      </c>
+      <c r="C111" t="s">
+        <v>292</v>
+      </c>
+      <c r="D111" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>294</v>
+      </c>
+      <c r="B112" t="s">
+        <v>286</v>
+      </c>
+      <c r="C112" t="s">
+        <v>295</v>
+      </c>
+      <c r="D112" t="s">
+        <v>14</v>
+      </c>
+      <c r="E112" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>297</v>
+      </c>
+      <c r="B113" t="s">
+        <v>286</v>
+      </c>
+      <c r="C113" t="s">
+        <v>298</v>
+      </c>
+      <c r="D113" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" t="s">
         <v>181</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1" t="s">
-        <v>182</v>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>299</v>
+      </c>
+      <c r="B114" t="s">
+        <v>286</v>
+      </c>
+      <c r="C114" t="s">
+        <v>300</v>
+      </c>
+      <c r="D114" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>302</v>
+      </c>
+      <c r="B115" t="s">
+        <v>286</v>
+      </c>
+      <c r="C115" t="s">
+        <v>303</v>
+      </c>
+      <c r="D115" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>305</v>
+      </c>
+      <c r="B116" t="s">
+        <v>286</v>
+      </c>
+      <c r="C116" t="s">
+        <v>306</v>
+      </c>
+      <c r="D116" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>307</v>
+      </c>
+      <c r="B117" t="s">
+        <v>286</v>
+      </c>
+      <c r="C117" t="s">
+        <v>308</v>
+      </c>
+      <c r="D117" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>310</v>
+      </c>
+      <c r="B118" t="s">
+        <v>286</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A119:D119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="460">
   <si>
     <t>Sold Ințial</t>
   </si>
   <si>
-    <t>2957.15</t>
+    <t>0</t>
   </si>
   <si>
     <t>Nr</t>
@@ -34,18 +34,732 @@
     <t>Lei</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>Încărcare Sold</t>
+  </si>
+  <si>
+    <t>Intrare</t>
+  </si>
+  <si>
+    <t>7760.44</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2023-11-07</t>
+  </si>
+  <si>
+    <t>Plata DHM EXIM cu ch 6976</t>
+  </si>
+  <si>
+    <t>Cheltuiala</t>
+  </si>
+  <si>
+    <t>-1082.07</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Kaufland bf 359</t>
+  </si>
+  <si>
+    <t>-334.49</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Lapte ch 222266</t>
+  </si>
+  <si>
+    <t>-850.2</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Raport Z</t>
+  </si>
+  <si>
+    <t>2122.5</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focaccia </t>
+  </si>
+  <si>
+    <t>-120</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Fan courier</t>
+  </si>
+  <si>
+    <t>-139.96</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2023-11-08</t>
+  </si>
+  <si>
+    <t>transfer in banca</t>
+  </si>
+  <si>
+    <t>-4000</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>2869</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Citro fructe ch 54848</t>
+  </si>
+  <si>
+    <t>-109</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Salar Denisa</t>
+  </si>
+  <si>
+    <t>-150</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Avans Alex</t>
+  </si>
+  <si>
+    <t>-200</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Greseala încasare paste creveți- plus pe card</t>
+  </si>
+  <si>
+    <t>-39</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
+    <t>Plata sucuri ch 10045</t>
+  </si>
+  <si>
+    <t>-647</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Plata Teodora</t>
+  </si>
+  <si>
+    <t>-340</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Focaccia bf 07</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plata oțet </t>
+  </si>
+  <si>
+    <t>-13</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Kaufland bf 61739</t>
+  </si>
+  <si>
+    <t>-202</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greșeală </t>
+  </si>
+  <si>
+    <t>-36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>1793</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Fan courier ch 502</t>
+  </si>
+  <si>
+    <t>-107</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>-300</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
+    <t>Lapte ch3 3230</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selgros </t>
+  </si>
+  <si>
+    <t>-550</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avans Stefan </t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>-500</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Metro 785</t>
+  </si>
+  <si>
+    <t>-2535</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Carrefour bf 048983</t>
+  </si>
+  <si>
+    <t>-55</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>1558</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>2023-11-11</t>
+  </si>
+  <si>
+    <t>Stockday ch</t>
+  </si>
+  <si>
+    <t>-503</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>2524</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Carrefour bf00095</t>
+  </si>
+  <si>
+    <t>-163</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Lidl bf 00408</t>
+  </si>
+  <si>
+    <t>-256</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Focaccia bf 0016</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>2023-11-12</t>
+  </si>
+  <si>
+    <t>raport z</t>
+  </si>
+  <si>
+    <t>3390</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>dublaj Tavi</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>avans Ovi</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>salar paul</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>salar andra</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>salar deni</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>focaccia bf 0006</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>kaufland bf 00421</t>
+  </si>
+  <si>
+    <t>-155</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>cumparaturi bucatarie bf0003</t>
+  </si>
+  <si>
+    <t>-125</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>selgros adrian</t>
+  </si>
+  <si>
+    <t>-624</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>paine ch 0631</t>
+  </si>
+  <si>
+    <t>-286</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>Greseala Alin</t>
+  </si>
+  <si>
+    <t>-42</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Fructe ch32823</t>
+  </si>
+  <si>
+    <t>-100</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Cartela 9444</t>
+  </si>
+  <si>
+    <t>-32</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>Transport pahare ch1395</t>
+  </si>
+  <si>
+    <t>-132</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tips Curier </t>
+  </si>
+  <si>
+    <t>-14</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Simba invest apa tonică ch 1690</t>
+  </si>
+  <si>
+    <t>-106</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Fan courier ch7536</t>
+  </si>
+  <si>
+    <t>-312</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tips card </t>
+  </si>
+  <si>
+    <t>-238</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Raport z</t>
+  </si>
+  <si>
+    <t>1360</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>Avans Ovidiu</t>
+  </si>
+  <si>
+    <t>-1000</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>2023-11-14</t>
+  </si>
+  <si>
+    <t>Lapte ch 3230</t>
+  </si>
+  <si>
+    <t>-850</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Dmh prosciutto ch 6999</t>
+  </si>
+  <si>
+    <t>-1327</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Bartending ch 12204</t>
+  </si>
+  <si>
+    <t>-600</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Spaghetti ch 8306</t>
+  </si>
+  <si>
+    <t>-293</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raport z </t>
+  </si>
+  <si>
+    <t>1372</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focaccia ch </t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Greșeală numerar card</t>
+  </si>
+  <si>
+    <t>-68</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>2023-11-15</t>
+  </si>
+  <si>
+    <t>Încasare raport Z</t>
+  </si>
+  <si>
+    <t>1054.5</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>simba 4538702</t>
+  </si>
+  <si>
+    <t>-319.2</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>curier, trimis pungi buc, ch 13193437501</t>
+  </si>
+  <si>
+    <t>-58.37</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>plata tips card</t>
+  </si>
+  <si>
+    <t>-90</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>2023-11-16</t>
+  </si>
+  <si>
+    <t>Avans Boboc</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>avans alex</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>focaccia</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dedeman </t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Avans ovi</t>
+  </si>
+  <si>
+    <t>-1100</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>avans Alex</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>2023-11-17</t>
+  </si>
+  <si>
+    <t>lapte ch 7077</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>citro fructe ch 32860</t>
+  </si>
+  <si>
+    <t>-102</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>gls ch 1377</t>
+  </si>
+  <si>
+    <t>-1009</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>gls ch 1376</t>
+  </si>
+  <si>
+    <t>-167</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Sergiu instalație muncitori</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>-650</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>transfer banca</t>
+  </si>
+  <si>
+    <t>19000</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>plata salarii</t>
+  </si>
+  <si>
+    <t>-17550</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>1506</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>gheata ch 25381</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>focaccia bf 0022</t>
+  </si>
+  <si>
     <t>105</t>
   </si>
   <si>
     <t>2023-11-18</t>
   </si>
   <si>
-    <t>raport z</t>
-  </si>
-  <si>
-    <t>Intrare</t>
-  </si>
-  <si>
     <t>1365</t>
   </si>
   <si>
@@ -55,21 +769,12 @@
     <t>salar Denisa</t>
   </si>
   <si>
-    <t>Cheltuiala</t>
-  </si>
-  <si>
-    <t>-300</t>
-  </si>
-  <si>
     <t>107</t>
   </si>
   <si>
     <t>salar Andra</t>
   </si>
   <si>
-    <t>-150</t>
-  </si>
-  <si>
     <t>108</t>
   </si>
   <si>
@@ -85,9 +790,6 @@
     <t>bani înapoiată greseala</t>
   </si>
   <si>
-    <t>-14</t>
-  </si>
-  <si>
     <t>110</t>
   </si>
   <si>
@@ -115,9 +817,6 @@
     <t xml:space="preserve">salar Paul </t>
   </si>
   <si>
-    <t>-200</t>
-  </si>
-  <si>
     <t>113</t>
   </si>
   <si>
@@ -172,9 +871,6 @@
     <t>121</t>
   </si>
   <si>
-    <t>avans Alex</t>
-  </si>
-  <si>
     <t>122</t>
   </si>
   <si>
@@ -193,27 +889,18 @@
     <t xml:space="preserve">focaccia bf </t>
   </si>
   <si>
-    <t>-120</t>
-  </si>
-  <si>
     <t>124</t>
   </si>
   <si>
     <t>simba ch 8607</t>
   </si>
   <si>
-    <t>-107</t>
-  </si>
-  <si>
     <t>125</t>
   </si>
   <si>
     <t>lapte ch 0167</t>
   </si>
   <si>
-    <t>-850</t>
-  </si>
-  <si>
     <t>126</t>
   </si>
   <si>
@@ -253,12 +940,6 @@
     <t>130</t>
   </si>
   <si>
-    <t>avans Ovi</t>
-  </si>
-  <si>
-    <t>-500</t>
-  </si>
-  <si>
     <t>131</t>
   </si>
   <si>
@@ -283,9 +964,6 @@
     <t>taxy moldoveni</t>
   </si>
   <si>
-    <t>-50</t>
-  </si>
-  <si>
     <t>134</t>
   </si>
   <si>
@@ -313,9 +991,6 @@
     <t>137</t>
   </si>
   <si>
-    <t>Raport z</t>
-  </si>
-  <si>
     <t>1730</t>
   </si>
   <si>
@@ -343,9 +1018,6 @@
     <t>lapte ch 0579</t>
   </si>
   <si>
-    <t>-340</t>
-  </si>
-  <si>
     <t>141</t>
   </si>
   <si>
@@ -475,9 +1147,6 @@
     <t>2023-11-27</t>
   </si>
   <si>
-    <t>-600</t>
-  </si>
-  <si>
     <t>162</t>
   </si>
   <si>
@@ -511,12 +1180,6 @@
     <t>166</t>
   </si>
   <si>
-    <t>focaccia bf 0006</t>
-  </si>
-  <si>
-    <t>-90</t>
-  </si>
-  <si>
     <t>167</t>
   </si>
   <si>
@@ -724,236 +1387,10 @@
     <t>-450</t>
   </si>
   <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>2023-12-01</t>
-  </si>
-  <si>
-    <t>1448</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>Avans Stefan</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>avans Adina</t>
-  </si>
-  <si>
-    <t>-100</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>Avans Tavi</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>focaccia bf 0002</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>lapte ch 1192</t>
-  </si>
-  <si>
-    <t>-425</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>dmh Ch 7067</t>
-  </si>
-  <si>
-    <t>-676</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>2023-12-02</t>
-  </si>
-  <si>
-    <t>kaufland bf 00083</t>
-  </si>
-  <si>
-    <t>-163</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>Citro Ch 32959</t>
-  </si>
-  <si>
-    <t>-84</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>2068</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>Avans Paul</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>avans ovidiu</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>avans boboc</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>2023-12-03</t>
-  </si>
-  <si>
-    <t>1894</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>Salar paul</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>motorina Ovidiu</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>avans Stefan</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>2023-12-04</t>
-  </si>
-  <si>
-    <t>Paine Ch 0640</t>
-  </si>
-  <si>
-    <t>-294</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>Citro Ch 32966</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>dmh Ch 7072</t>
-  </si>
-  <si>
-    <t>-380</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>maraton ch 573550</t>
-  </si>
-  <si>
-    <t>-3000</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>kaufland bf 00080</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avans ovidiu
-</t>
-  </si>
-  <si>
-    <t>-800</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>hamburger sagrod bf 0021</t>
-  </si>
-  <si>
-    <t>-124</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>chifle bf 0044</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>asko-avantica Ch 1445</t>
-  </si>
-  <si>
-    <t>-79</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>1103</t>
-  </si>
-  <si>
     <t>Sold Final</t>
   </si>
   <si>
-    <t>4069.72</t>
+    <t>6135.72</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E172"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
@@ -1399,81 +1836,81 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
@@ -1484,13 +1921,13 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
         <v>31</v>
@@ -1501,30 +1938,30 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>37</v>
@@ -1535,30 +1972,30 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>43</v>
@@ -1569,13 +2006,13 @@
         <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
         <v>46</v>
@@ -1586,13 +2023,13 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
         <v>49</v>
@@ -1603,115 +2040,115 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
         <v>69</v>
@@ -1722,13 +2159,13 @@
         <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
         <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
         <v>72</v>
@@ -1739,900 +2176,900 @@
         <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
         <v>74</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
         <v>76</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>77</v>
       </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
         <v>79</v>
       </c>
-      <c r="B26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
         <v>80</v>
-      </c>
-      <c r="D26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
         <v>82</v>
       </c>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" t="s">
-        <v>83</v>
-      </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" t="s">
         <v>105</v>
       </c>
-      <c r="C36" t="s">
-        <v>109</v>
-      </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
         <v>130</v>
-      </c>
-      <c r="C46" t="s">
-        <v>136</v>
-      </c>
-      <c r="D46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B51" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
         <v>146</v>
-      </c>
-      <c r="C51" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
         <v>149</v>
-      </c>
-      <c r="B52" t="s">
-        <v>146</v>
-      </c>
-      <c r="C52" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" t="s">
         <v>151</v>
       </c>
-      <c r="B53" t="s">
-        <v>146</v>
-      </c>
-      <c r="C53" t="s">
-        <v>53</v>
-      </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B54" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C54" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B55" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B56" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C56" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B57" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C57" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B58" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>166</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B59" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C59" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C60" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C61" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B62" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C62" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B63" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C63" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B64" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C64" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>181</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B65" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C65" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B66" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C66" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B67" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C67" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E67" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>196</v>
+      </c>
+      <c r="B68" t="s">
         <v>190</v>
       </c>
-      <c r="B68" t="s">
-        <v>177</v>
-      </c>
       <c r="C68" t="s">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E68" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B69" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C69" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E69" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B70" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C70" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E70" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B71" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="C71" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E71" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B72" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="C72" t="s">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E72" t="s">
-        <v>202</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B73" t="s">
         <v>204</v>
       </c>
       <c r="C73" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E73" t="s">
-        <v>206</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B74" t="s">
         <v>204</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>211</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E74" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B75" t="s">
         <v>204</v>
       </c>
       <c r="C75" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E75" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B76" t="s">
         <v>204</v>
       </c>
       <c r="C76" t="s">
-        <v>213</v>
+        <v>111</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2643,727 +3080,1628 @@
         <v>204</v>
       </c>
       <c r="C77" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E77" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B78" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="C78" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E78" t="s">
-        <v>167</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>222</v>
+      </c>
+      <c r="B79" t="s">
         <v>220</v>
       </c>
-      <c r="B79" t="s">
-        <v>204</v>
-      </c>
       <c r="C79" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E79" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B80" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="C80" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E80" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B81" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C81" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E81" t="s">
-        <v>81</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B82" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E82" t="s">
-        <v>230</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B83" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C83" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E83" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B84" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C84" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B85" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C85" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E85" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B86" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="C86" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D86" t="s">
         <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B87" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="C87" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E87" t="s">
-        <v>34</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B88" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="C88" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
       <c r="D88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B89" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C89" t="s">
-        <v>244</v>
+        <v>111</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B90" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>251</v>
       </c>
       <c r="D90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E90" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B91" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C91" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E91" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B92" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C92" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E92" t="s">
-        <v>60</v>
+        <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B93" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C93" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E93" t="s">
-        <v>253</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B94" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="C94" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E94" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B95" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C95" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E95" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B96" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C96" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E96" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B97" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C97" t="s">
-        <v>100</v>
+        <v>269</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E97" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B98" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C98" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="D98" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>90</v>
+        <v>272</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B99" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="C99" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E99" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B100" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="C100" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E100" t="s">
-        <v>34</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B101" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="C101" t="s">
-        <v>53</v>
+        <v>281</v>
       </c>
       <c r="D101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E101" t="s">
-        <v>18</v>
+        <v>282</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="B102" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="C102" t="s">
-        <v>273</v>
+        <v>111</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>285</v>
+      </c>
+      <c r="B103" t="s">
         <v>274</v>
       </c>
-      <c r="B103" t="s">
-        <v>275</v>
-      </c>
       <c r="C103" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E103" t="s">
-        <v>276</v>
+        <v>74</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B104" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C104" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="D104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E104" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="B105" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>291</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E105" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="B106" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C106" t="s">
-        <v>175</v>
+        <v>293</v>
       </c>
       <c r="D106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E106" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="B107" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C107" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="D107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E107" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="B108" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C108" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="D108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E108" t="s">
-        <v>90</v>
+        <v>298</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B109" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C109" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="D109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E109" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="B110" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C110" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="D110" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="B111" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="C111" t="s">
-        <v>292</v>
+        <v>111</v>
       </c>
       <c r="D111" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="B112" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="C112" t="s">
-        <v>295</v>
+        <v>116</v>
       </c>
       <c r="D112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E112" t="s">
-        <v>296</v>
+        <v>86</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="B113" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="C113" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="D113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E113" t="s">
-        <v>181</v>
+        <v>311</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="B114" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="C114" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="D114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E114" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="B115" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="C115" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E115" t="s">
-        <v>304</v>
+        <v>218</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="B116" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="C116" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="D116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E116" t="s">
-        <v>194</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="B117" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="C117" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="D117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E117" t="s">
-        <v>309</v>
+        <v>74</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="B118" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>324</v>
       </c>
       <c r="D118" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>325</v>
+      </c>
+      <c r="B119" t="s">
+        <v>321</v>
+      </c>
+      <c r="C119" t="s">
+        <v>163</v>
+      </c>
+      <c r="D119" t="s">
         <v>10</v>
       </c>
-      <c r="E118" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1" t="s">
-        <v>313</v>
+      <c r="E119" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>327</v>
+      </c>
+      <c r="B120" t="s">
+        <v>321</v>
+      </c>
+      <c r="C120" t="s">
+        <v>328</v>
+      </c>
+      <c r="D120" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>329</v>
+      </c>
+      <c r="B121" t="s">
+        <v>330</v>
+      </c>
+      <c r="C121" t="s">
+        <v>331</v>
+      </c>
+      <c r="D121" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>333</v>
+      </c>
+      <c r="B122" t="s">
+        <v>330</v>
+      </c>
+      <c r="C122" t="s">
+        <v>334</v>
+      </c>
+      <c r="D122" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>335</v>
+      </c>
+      <c r="B123" t="s">
+        <v>330</v>
+      </c>
+      <c r="C123" t="s">
+        <v>336</v>
+      </c>
+      <c r="D123" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>337</v>
+      </c>
+      <c r="B124" t="s">
+        <v>330</v>
+      </c>
+      <c r="C124" t="s">
+        <v>338</v>
+      </c>
+      <c r="D124" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>340</v>
+      </c>
+      <c r="B125" t="s">
+        <v>330</v>
+      </c>
+      <c r="C125" t="s">
+        <v>341</v>
+      </c>
+      <c r="D125" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>343</v>
+      </c>
+      <c r="B126" t="s">
+        <v>330</v>
+      </c>
+      <c r="C126" t="s">
+        <v>344</v>
+      </c>
+      <c r="D126" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>346</v>
+      </c>
+      <c r="B127" t="s">
+        <v>330</v>
+      </c>
+      <c r="C127" t="s">
+        <v>347</v>
+      </c>
+      <c r="D127" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>348</v>
+      </c>
+      <c r="B128" t="s">
+        <v>330</v>
+      </c>
+      <c r="C128" t="s">
+        <v>349</v>
+      </c>
+      <c r="D128" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>351</v>
+      </c>
+      <c r="B129" t="s">
+        <v>330</v>
+      </c>
+      <c r="C129" t="s">
+        <v>111</v>
+      </c>
+      <c r="D129" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>353</v>
+      </c>
+      <c r="B130" t="s">
+        <v>354</v>
+      </c>
+      <c r="C130" t="s">
+        <v>355</v>
+      </c>
+      <c r="D130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>357</v>
+      </c>
+      <c r="B131" t="s">
+        <v>354</v>
+      </c>
+      <c r="C131" t="s">
+        <v>358</v>
+      </c>
+      <c r="D131" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>359</v>
+      </c>
+      <c r="B132" t="s">
+        <v>354</v>
+      </c>
+      <c r="C132" t="s">
+        <v>360</v>
+      </c>
+      <c r="D132" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>361</v>
+      </c>
+      <c r="B133" t="s">
+        <v>354</v>
+      </c>
+      <c r="C133" t="s">
+        <v>362</v>
+      </c>
+      <c r="D133" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>363</v>
+      </c>
+      <c r="B134" t="s">
+        <v>354</v>
+      </c>
+      <c r="C134" t="s">
+        <v>364</v>
+      </c>
+      <c r="D134" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>366</v>
+      </c>
+      <c r="B135" t="s">
+        <v>354</v>
+      </c>
+      <c r="C135" t="s">
+        <v>367</v>
+      </c>
+      <c r="D135" t="s">
+        <v>15</v>
+      </c>
+      <c r="E135" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>369</v>
+      </c>
+      <c r="B136" t="s">
+        <v>370</v>
+      </c>
+      <c r="C136" t="s">
+        <v>111</v>
+      </c>
+      <c r="D136" t="s">
+        <v>10</v>
+      </c>
+      <c r="E136" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>372</v>
+      </c>
+      <c r="B137" t="s">
+        <v>370</v>
+      </c>
+      <c r="C137" t="s">
+        <v>253</v>
+      </c>
+      <c r="D137" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>373</v>
+      </c>
+      <c r="B138" t="s">
+        <v>370</v>
+      </c>
+      <c r="C138" t="s">
+        <v>374</v>
+      </c>
+      <c r="D138" t="s">
+        <v>15</v>
+      </c>
+      <c r="E138" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>375</v>
+      </c>
+      <c r="B139" t="s">
+        <v>370</v>
+      </c>
+      <c r="C139" t="s">
+        <v>217</v>
+      </c>
+      <c r="D139" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>376</v>
+      </c>
+      <c r="B140" t="s">
+        <v>377</v>
+      </c>
+      <c r="C140" t="s">
+        <v>217</v>
+      </c>
+      <c r="D140" t="s">
+        <v>15</v>
+      </c>
+      <c r="E140" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>378</v>
+      </c>
+      <c r="B141" t="s">
+        <v>377</v>
+      </c>
+      <c r="C141" t="s">
+        <v>379</v>
+      </c>
+      <c r="D141" t="s">
+        <v>15</v>
+      </c>
+      <c r="E141" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>380</v>
+      </c>
+      <c r="B142" t="s">
+        <v>377</v>
+      </c>
+      <c r="C142" t="s">
+        <v>381</v>
+      </c>
+      <c r="D142" t="s">
+        <v>15</v>
+      </c>
+      <c r="E142" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>383</v>
+      </c>
+      <c r="B143" t="s">
+        <v>377</v>
+      </c>
+      <c r="C143" t="s">
+        <v>384</v>
+      </c>
+      <c r="D143" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>386</v>
+      </c>
+      <c r="B144" t="s">
+        <v>377</v>
+      </c>
+      <c r="C144" t="s">
+        <v>111</v>
+      </c>
+      <c r="D144" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>388</v>
+      </c>
+      <c r="B145" t="s">
+        <v>377</v>
+      </c>
+      <c r="C145" t="s">
+        <v>124</v>
+      </c>
+      <c r="D145" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>389</v>
+      </c>
+      <c r="B146" t="s">
+        <v>377</v>
+      </c>
+      <c r="C146" t="s">
+        <v>390</v>
+      </c>
+      <c r="D146" t="s">
+        <v>15</v>
+      </c>
+      <c r="E146" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>392</v>
+      </c>
+      <c r="B147" t="s">
+        <v>377</v>
+      </c>
+      <c r="C147" t="s">
+        <v>393</v>
+      </c>
+      <c r="D147" t="s">
+        <v>15</v>
+      </c>
+      <c r="E147" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>395</v>
+      </c>
+      <c r="B148" t="s">
+        <v>377</v>
+      </c>
+      <c r="C148" t="s">
+        <v>396</v>
+      </c>
+      <c r="D148" t="s">
+        <v>15</v>
+      </c>
+      <c r="E148" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>397</v>
+      </c>
+      <c r="B149" t="s">
+        <v>398</v>
+      </c>
+      <c r="C149" t="s">
+        <v>399</v>
+      </c>
+      <c r="D149" t="s">
+        <v>15</v>
+      </c>
+      <c r="E149" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>400</v>
+      </c>
+      <c r="B150" t="s">
+        <v>398</v>
+      </c>
+      <c r="C150" t="s">
+        <v>401</v>
+      </c>
+      <c r="D150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>403</v>
+      </c>
+      <c r="B151" t="s">
+        <v>398</v>
+      </c>
+      <c r="C151" t="s">
+        <v>404</v>
+      </c>
+      <c r="D151" t="s">
+        <v>15</v>
+      </c>
+      <c r="E151" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>406</v>
+      </c>
+      <c r="B152" t="s">
+        <v>398</v>
+      </c>
+      <c r="C152" t="s">
+        <v>407</v>
+      </c>
+      <c r="D152" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>408</v>
+      </c>
+      <c r="B153" t="s">
+        <v>398</v>
+      </c>
+      <c r="C153" t="s">
+        <v>409</v>
+      </c>
+      <c r="D153" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>411</v>
+      </c>
+      <c r="B154" t="s">
+        <v>398</v>
+      </c>
+      <c r="C154" t="s">
+        <v>412</v>
+      </c>
+      <c r="D154" t="s">
+        <v>15</v>
+      </c>
+      <c r="E154" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>413</v>
+      </c>
+      <c r="B155" t="s">
+        <v>398</v>
+      </c>
+      <c r="C155" t="s">
+        <v>414</v>
+      </c>
+      <c r="D155" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>416</v>
+      </c>
+      <c r="B156" t="s">
+        <v>398</v>
+      </c>
+      <c r="C156" t="s">
+        <v>417</v>
+      </c>
+      <c r="D156" t="s">
+        <v>15</v>
+      </c>
+      <c r="E156" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>419</v>
+      </c>
+      <c r="B157" t="s">
+        <v>398</v>
+      </c>
+      <c r="C157" t="s">
+        <v>420</v>
+      </c>
+      <c r="D157" t="s">
+        <v>15</v>
+      </c>
+      <c r="E157" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>422</v>
+      </c>
+      <c r="B158" t="s">
+        <v>398</v>
+      </c>
+      <c r="C158" t="s">
+        <v>163</v>
+      </c>
+      <c r="D158" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>424</v>
+      </c>
+      <c r="B159" t="s">
+        <v>425</v>
+      </c>
+      <c r="C159" t="s">
+        <v>426</v>
+      </c>
+      <c r="D159" t="s">
+        <v>15</v>
+      </c>
+      <c r="E159" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>428</v>
+      </c>
+      <c r="B160" t="s">
+        <v>425</v>
+      </c>
+      <c r="C160" t="s">
+        <v>111</v>
+      </c>
+      <c r="D160" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>430</v>
+      </c>
+      <c r="B161" t="s">
+        <v>425</v>
+      </c>
+      <c r="C161" t="s">
+        <v>431</v>
+      </c>
+      <c r="D161" t="s">
+        <v>15</v>
+      </c>
+      <c r="E161" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>433</v>
+      </c>
+      <c r="B162" t="s">
+        <v>425</v>
+      </c>
+      <c r="C162" t="s">
+        <v>434</v>
+      </c>
+      <c r="D162" t="s">
+        <v>15</v>
+      </c>
+      <c r="E162" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>436</v>
+      </c>
+      <c r="B163" t="s">
+        <v>425</v>
+      </c>
+      <c r="C163" t="s">
+        <v>437</v>
+      </c>
+      <c r="D163" t="s">
+        <v>15</v>
+      </c>
+      <c r="E163" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>439</v>
+      </c>
+      <c r="B164" t="s">
+        <v>425</v>
+      </c>
+      <c r="C164" t="s">
+        <v>440</v>
+      </c>
+      <c r="D164" t="s">
+        <v>15</v>
+      </c>
+      <c r="E164" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>441</v>
+      </c>
+      <c r="B165" t="s">
+        <v>425</v>
+      </c>
+      <c r="C165" t="s">
+        <v>442</v>
+      </c>
+      <c r="D165" t="s">
+        <v>15</v>
+      </c>
+      <c r="E165" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>444</v>
+      </c>
+      <c r="B166" t="s">
+        <v>425</v>
+      </c>
+      <c r="C166" t="s">
+        <v>445</v>
+      </c>
+      <c r="D166" t="s">
+        <v>15</v>
+      </c>
+      <c r="E166" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>447</v>
+      </c>
+      <c r="B167" t="s">
+        <v>448</v>
+      </c>
+      <c r="C167" t="s">
+        <v>449</v>
+      </c>
+      <c r="D167" t="s">
+        <v>15</v>
+      </c>
+      <c r="E167" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>450</v>
+      </c>
+      <c r="B168" t="s">
+        <v>448</v>
+      </c>
+      <c r="C168" t="s">
+        <v>111</v>
+      </c>
+      <c r="D168" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>452</v>
+      </c>
+      <c r="B169" t="s">
+        <v>448</v>
+      </c>
+      <c r="C169" t="s">
+        <v>440</v>
+      </c>
+      <c r="D169" t="s">
+        <v>15</v>
+      </c>
+      <c r="E169" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>453</v>
+      </c>
+      <c r="B170" t="s">
+        <v>448</v>
+      </c>
+      <c r="C170" t="s">
+        <v>454</v>
+      </c>
+      <c r="D170" t="s">
+        <v>15</v>
+      </c>
+      <c r="E170" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>455</v>
+      </c>
+      <c r="B171" t="s">
+        <v>448</v>
+      </c>
+      <c r="C171" t="s">
+        <v>456</v>
+      </c>
+      <c r="D171" t="s">
+        <v>15</v>
+      </c>
+      <c r="E171" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A172:D172"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
